--- a/data/trans_camb/P19C02-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>8.399565287258737</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>16.31345781912356</v>
+        <v>16.31345781912357</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.812291452040887</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.114629240233394</v>
+        <v>-5.353266969171557</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.272914983018454</v>
+        <v>-1.231202636472965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.144793259071185</v>
+        <v>1.573225795573778</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.80169335662679</v>
+        <v>0.9042930299454198</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.567899312741271</v>
+        <v>4.145047525581166</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.68103630640868</v>
+        <v>12.81967416406044</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.9167041769764175</v>
+        <v>-0.9053476192498766</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.571388903056124</v>
+        <v>3.26523426502836</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.371054661852488</v>
+        <v>9.198589555437445</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.847871793403741</v>
+        <v>2.513789018139292</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.019146495336372</v>
+        <v>7.53741676646157</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.51713138970224</v>
+        <v>11.00837282009442</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.466057592164097</v>
+        <v>7.849258365889741</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.51269866272025</v>
+        <v>12.55533627247146</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>19.886614594674</v>
+        <v>19.88242982126769</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.309518553853794</v>
+        <v>4.63014067650402</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.675134366019291</v>
+        <v>9.392329072482843</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.98158296619952</v>
+        <v>15.17507248880495</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.5047452011989071</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9803054405272301</v>
+        <v>0.9803054405272305</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1078933930279161</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3048537452708047</v>
+        <v>-0.2923798596685151</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.07168566730425248</v>
+        <v>-0.07099256191106001</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.05857425396197696</v>
+        <v>0.07755759733442115</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04239805287676741</v>
+        <v>0.04729383494834151</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2515142250291517</v>
+        <v>0.2258716883858549</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6682356364751875</v>
+        <v>0.7016553208050117</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05220373568853092</v>
+        <v>-0.04658376131184836</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1936717004192277</v>
+        <v>0.1836680418645184</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5103819306996715</v>
+        <v>0.5189347727754481</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1295244354768284</v>
+        <v>0.1683872749603773</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5307549843462928</v>
+        <v>0.4867160808037301</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6909737353741353</v>
+        <v>0.7523561472186062</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5052672057718057</v>
+        <v>0.5230359236980643</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8473557633809212</v>
+        <v>0.8354207664740886</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.326591693136377</v>
+        <v>1.362704408640341</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2690537892584604</v>
+        <v>0.3019078409865801</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6209366263322647</v>
+        <v>0.6155074518351509</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9680232137430964</v>
+        <v>0.9913100333246938</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.683391537916293</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>17.94138269062796</v>
+        <v>17.94138269062798</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.190286106995909</v>
@@ -878,7 +878,7 @@
         <v>4.973087194307019</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>18.11407630526122</v>
+        <v>18.11407630526123</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9628830710065466</v>
+        <v>-0.8938106785426311</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7624927472972076</v>
+        <v>0.7197253485571482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>14.84416655031441</v>
+        <v>14.89367555452974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.299146503092648</v>
+        <v>-1.529796508281784</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.069166623044999</v>
+        <v>2.305360258767988</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.63963273777632</v>
+        <v>14.61210098394739</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.4910130116592477</v>
+        <v>-0.1119239510140938</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.47208467158972</v>
+        <v>2.526713574043123</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>15.7870013266522</v>
+        <v>15.61395199596222</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.036242245374061</v>
+        <v>5.929079935710179</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.744694065001593</v>
+        <v>7.810070135077668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.76848169649461</v>
+        <v>22.1709659910023</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.333458318123845</v>
+        <v>5.414809602828749</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.076779309933952</v>
+        <v>9.085392323190019</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>21.13724363792879</v>
+        <v>21.26585448340178</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.46373097609804</v>
+        <v>4.692934458191157</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>7.473121797927821</v>
+        <v>7.290532644283642</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>20.41779482398907</v>
+        <v>20.541945200097</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.1684311301839749</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5317049412283832</v>
+        <v>0.5317049412283835</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.06786690040623819</v>
@@ -983,7 +983,7 @@
         <v>0.1540931169903108</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.5612719765849559</v>
+        <v>0.5612719765849562</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03255681851820208</v>
+        <v>-0.02651326630937801</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.02377877632774162</v>
+        <v>0.0230030428720412</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4527254405316306</v>
+        <v>0.454555019642312</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.06531164696363818</v>
+        <v>-0.04379959499689297</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05417681764123904</v>
+        <v>0.05811316452251301</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4086096742846845</v>
+        <v>0.4127793234805149</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.01426160308622215</v>
+        <v>-0.003513402582402799</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07450960258979258</v>
+        <v>0.07593304886500683</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4614273924124284</v>
+        <v>0.4599404609078723</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2106747609147561</v>
+        <v>0.2072725510543301</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2723170677020364</v>
+        <v>0.2728439051323516</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7720087673118201</v>
+        <v>0.7832088423817571</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1622352795024768</v>
+        <v>0.1690623291638512</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2828418525703783</v>
+        <v>0.2800485613301267</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6639534514598798</v>
+        <v>0.6783444759767346</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1429839664858892</v>
+        <v>0.1508478833386898</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2429679541269362</v>
+        <v>0.2371350497002279</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6566140456220025</v>
+        <v>0.6708405702943686</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>7.528258953861738</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19.45586874218639</v>
+        <v>19.4558687421864</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.9766610995592506</v>
@@ -1083,7 +1083,7 @@
         <v>2.570934513033285</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>14.10709825996077</v>
+        <v>14.10709825996076</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.09616135875092358</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.79430532991476</v>
+        <v>-5.356610251939399</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5808598752827464</v>
+        <v>0.4263061676148472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12.76094908179769</v>
+        <v>13.33408585802146</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.752675527607112</v>
+        <v>-7.646653381124567</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.785656818687348</v>
+        <v>-3.564468421620373</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.0529445231357</v>
+        <v>8.409725954292997</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.859054984335287</v>
+        <v>-5.038016893646353</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5429294905222021</v>
+        <v>0.6319757627050007</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>12.51459493201286</v>
+        <v>12.31626195625697</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.312273369354658</v>
+        <v>8.150795668399628</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.58475072183313</v>
+        <v>14.06457521804906</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26.14521022353071</v>
+        <v>26.07745154260804</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.366306979340786</v>
+        <v>5.960150571584919</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.823735000173873</v>
+        <v>9.835615291576161</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>19.79365902051</v>
+        <v>20.20685241364754</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.566279880804125</v>
+        <v>4.921677976970011</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.46291733126848</v>
+        <v>9.985554583216459</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.17907567564778</v>
+        <v>20.97458523791092</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1874689524828491</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4844906843793563</v>
+        <v>0.4844906843793566</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.02282262485643442</v>
@@ -1188,7 +1188,7 @@
         <v>0.06007761950168564</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3296547917647571</v>
+        <v>0.3296547917647568</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.002322130136992725</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1326254595230528</v>
+        <v>-0.1274800538114047</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01463747842714546</v>
+        <v>0.01005769968177632</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2865827747052935</v>
+        <v>0.298880073914136</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1685899511078469</v>
+        <v>-0.1662699498577556</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.09896317735953752</v>
+        <v>-0.07315865979205177</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1697563056041463</v>
+        <v>0.1773472234880742</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1140133759276937</v>
+        <v>-0.1149453321463332</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.01105325487712044</v>
+        <v>0.01392690766465648</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.282486852360877</v>
+        <v>0.2781735400524415</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2225434945121606</v>
+        <v>0.2188336985495873</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3684996339963798</v>
+        <v>0.3856634908604119</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7222360597302864</v>
+        <v>0.7062848894772876</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.163505684076431</v>
+        <v>0.1483341860375194</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2267796536545732</v>
+        <v>0.2597576071015781</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5061669185487533</v>
+        <v>0.5232194057743087</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1167988190431085</v>
+        <v>0.1243590393417169</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2679402567781004</v>
+        <v>0.2605377902338087</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5518242676025851</v>
+        <v>0.5447830813104464</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.544110295938992</v>
+        <v>-1.334159203721712</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.751629282559672</v>
+        <v>3.722943638646725</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15.75695630658018</v>
+        <v>15.96961371949568</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1699617692251728</v>
+        <v>-0.1371671199899632</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.667117261468743</v>
+        <v>5.634853468684011</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>17.35441437263802</v>
+        <v>17.30648791562219</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2746143643565756</v>
+        <v>-0.2556161500874226</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>5.330802443079801</v>
+        <v>5.307252489700436</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>17.41877021936875</v>
+        <v>17.34625966132883</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.874515842737954</v>
+        <v>3.57046522611369</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.951082999922765</v>
+        <v>8.726531409381362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20.96011734782751</v>
+        <v>21.36115327323318</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.739957426324218</v>
+        <v>4.55035719358257</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.36512820791589</v>
+        <v>10.62790577668723</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.91082362128854</v>
+        <v>21.85009533362673</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.481832705803847</v>
+        <v>3.294673983565085</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.060182322358386</v>
+        <v>9.059530706934098</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>20.91678829171651</v>
+        <v>20.88343583764868</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05065254529740501</v>
+        <v>-0.04462430691283491</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.12606615010094</v>
+        <v>0.1215813618586635</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5149892430127017</v>
+        <v>0.5309562617148986</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.005828039101113048</v>
+        <v>-0.004349128469647793</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1877623890074324</v>
+        <v>0.1825764339801438</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5645691813124416</v>
+        <v>0.5675208609911071</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.009060952187618642</v>
+        <v>-0.00838598544066033</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1779180484701079</v>
+        <v>0.1759244527842969</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5830315387475535</v>
+        <v>0.5815937820537105</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1420281189574233</v>
+        <v>0.1309268106081058</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3271165038856289</v>
+        <v>0.3207335576559406</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.7621737865432712</v>
+        <v>0.7845433285599791</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1703186206144027</v>
+        <v>0.1627147645222858</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3743677577734268</v>
+        <v>0.3833756207607826</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7877465822560319</v>
+        <v>0.7900769183441094</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1241773200854671</v>
+        <v>0.1185221238555326</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3218087874337668</v>
+        <v>0.3255510586595725</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.757482485909168</v>
+        <v>0.7569341435257103</v>
       </c>
     </row>
     <row r="28">
